--- a/runs/run584/NotionalETEOutput584.xlsx
+++ b/runs/run584/NotionalETEOutput584.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND0_State_Update</t>
+    <t>Missile_ANGERMAX1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0_38.MISSILE_HIGHWIND0_38</t>
+    <t>MISSILE_ANGERMAX1_197.MISSILE_ANGERMAX1_197</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND0</t>
+    <t>MISSILE_ANGERMAX1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1477.785669663914</v>
+        <v>-1461.52956836759</v>
       </c>
       <c r="J2">
-        <v>2049.396924579419</v>
+        <v>2072.700393681773</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1528.676569229279</v>
+        <v>-1397.954020547578</v>
       </c>
       <c r="J3">
-        <v>2024.989724901497</v>
+        <v>1908.140730759932</v>
       </c>
       <c r="K3">
-        <v>308.5788206188529</v>
+        <v>299.7426960518621</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1424.476439299568</v>
+        <v>-1406.865236374549</v>
       </c>
       <c r="J4">
-        <v>1969.270458620317</v>
+        <v>1878.464159370381</v>
       </c>
       <c r="K4">
-        <v>600.3344467583382</v>
+        <v>614.1548502606929</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1406.947705558925</v>
+        <v>-1406.499066699078</v>
       </c>
       <c r="J5">
-        <v>1909.689584290863</v>
+        <v>1774.660621424401</v>
       </c>
       <c r="K5">
-        <v>904.568231356254</v>
+        <v>845.6249256975726</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1440.903986936181</v>
+        <v>-1372.910708209046</v>
       </c>
       <c r="J6">
-        <v>1870.412311523006</v>
+        <v>1800.031843663932</v>
       </c>
       <c r="K6">
-        <v>1071.32265329911</v>
+        <v>1125.055442650737</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1398.217672943202</v>
+        <v>-1285.577986130212</v>
       </c>
       <c r="J7">
-        <v>1720.297007239783</v>
+        <v>1683.30253125812</v>
       </c>
       <c r="K7">
-        <v>1364.64314282887</v>
+        <v>1430.54987390321</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1332.108291653357</v>
+        <v>-1282.541524868648</v>
       </c>
       <c r="J8">
-        <v>1626.835328349403</v>
+        <v>1785.79540426725</v>
       </c>
       <c r="K8">
-        <v>1548.655601031062</v>
+        <v>1630.527674347312</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.80239510257235</v>
+        <v>-98.71025149848468</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1218.855532076714</v>
+        <v>-1335.306626175543</v>
       </c>
       <c r="J9">
-        <v>1624.684876949638</v>
+        <v>1695.840873214335</v>
       </c>
       <c r="K9">
-        <v>1820.016863799783</v>
+        <v>1743.881909252292</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>219.7198252132217</v>
+        <v>223.7089580844394</v>
       </c>
       <c r="G10">
-        <v>-80.624686820656</v>
+        <v>-82.3732040725873</v>
       </c>
       <c r="H10">
-        <v>854.8608387297357</v>
+        <v>883.6959923110992</v>
       </c>
       <c r="I10">
-        <v>-1195.317653430232</v>
+        <v>-1196.457594564075</v>
       </c>
       <c r="J10">
-        <v>1587.692751275063</v>
+        <v>1557.349425617378</v>
       </c>
       <c r="K10">
-        <v>2078.305652928143</v>
+        <v>1950.781920040726</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.6056880739321</v>
+        <v>172.7648872217626</v>
       </c>
       <c r="G11">
-        <v>-64.25111761610361</v>
+        <v>-66.65679170597971</v>
       </c>
       <c r="H11">
-        <v>1090.711898965575</v>
+        <v>1100.733131843201</v>
       </c>
       <c r="I11">
-        <v>-1191.187186510016</v>
+        <v>-1227.19006847403</v>
       </c>
       <c r="J11">
-        <v>1496.841333795333</v>
+        <v>1515.185538624709</v>
       </c>
       <c r="K11">
-        <v>2281.947466962822</v>
+        <v>2148.355359633476</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>146.9164798500794</v>
+        <v>133.5666373789894</v>
       </c>
       <c r="G12">
-        <v>-49.32874182779082</v>
+        <v>-48.34271454897646</v>
       </c>
       <c r="H12">
-        <v>1182.738673514456</v>
+        <v>1124.219943998646</v>
       </c>
       <c r="I12">
-        <v>-1223.172672329937</v>
+        <v>-1113.036437056031</v>
       </c>
       <c r="J12">
-        <v>1553.209737862469</v>
+        <v>1524.093890598415</v>
       </c>
       <c r="K12">
-        <v>2448.898407579295</v>
+        <v>2365.361929388881</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>123.672207514498</v>
+        <v>122.5471496069817</v>
       </c>
       <c r="G13">
-        <v>-35.3781742202238</v>
+        <v>-34.27947791001318</v>
       </c>
       <c r="H13">
-        <v>1230.279664875038</v>
+        <v>1294.440606718831</v>
       </c>
       <c r="I13">
-        <v>-1107.951343093078</v>
+        <v>-1106.012763549519</v>
       </c>
       <c r="J13">
-        <v>1427.002008553653</v>
+        <v>1414.002300493225</v>
       </c>
       <c r="K13">
-        <v>2605.940479973546</v>
+        <v>2514.317371605413</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.3745908797131</v>
+        <v>107.8180735354246</v>
       </c>
       <c r="G14">
-        <v>-17.11938883650769</v>
+        <v>-17.98431475730033</v>
       </c>
       <c r="H14">
-        <v>1325.240949672997</v>
+        <v>1360.607029925601</v>
       </c>
       <c r="I14">
-        <v>-1101.785478948037</v>
+        <v>-1087.055239761741</v>
       </c>
       <c r="J14">
-        <v>1426.662002895807</v>
+        <v>1418.322134338483</v>
       </c>
       <c r="K14">
-        <v>2576.654655179313</v>
+        <v>2736.384404671788</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>104.1761405536355</v>
+        <v>98.19047272797464</v>
       </c>
       <c r="G15">
-        <v>-0.8801935132676584</v>
+        <v>-0.9006995473255611</v>
       </c>
       <c r="H15">
-        <v>1426.447722563121</v>
+        <v>1399.638247186008</v>
       </c>
       <c r="I15">
-        <v>-1101.960679566043</v>
+        <v>-1059.361696523293</v>
       </c>
       <c r="J15">
-        <v>1411.670624723284</v>
+        <v>1389.667505268917</v>
       </c>
       <c r="K15">
-        <v>2732.200399928273</v>
+        <v>2756.771542120722</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>93.97794036396925</v>
+        <v>93.93090320668048</v>
       </c>
       <c r="G16">
-        <v>16.10153252825073</v>
+        <v>15.93528464023071</v>
       </c>
       <c r="H16">
-        <v>1400.913310227626</v>
+        <v>1426.521175787839</v>
       </c>
       <c r="I16">
-        <v>-1007.597391316947</v>
+        <v>-1034.808452006737</v>
       </c>
       <c r="J16">
-        <v>1333.601226295053</v>
+        <v>1263.678088587138</v>
       </c>
       <c r="K16">
-        <v>2882.233687690733</v>
+        <v>2838.849278316436</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.56505083872406</v>
+        <v>86.12308676556759</v>
       </c>
       <c r="G17">
-        <v>31.38576180851963</v>
+        <v>31.2737983536526</v>
       </c>
       <c r="H17">
-        <v>1398.773549595466</v>
+        <v>1538.74605952889</v>
       </c>
       <c r="I17">
-        <v>-926.4478336918831</v>
+        <v>-958.1559199156004</v>
       </c>
       <c r="J17">
-        <v>1249.474139784929</v>
+        <v>1245.506506105879</v>
       </c>
       <c r="K17">
-        <v>3003.270963595098</v>
+        <v>2892.997945420163</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.01890679780225</v>
+        <v>83.57815139750275</v>
       </c>
       <c r="G18">
-        <v>49.43418736912118</v>
+        <v>48.99395200932087</v>
       </c>
       <c r="H18">
-        <v>1465.902600803608</v>
+        <v>1516.750636355928</v>
       </c>
       <c r="I18">
-        <v>-943.1008933419902</v>
+        <v>-956.9266940611086</v>
       </c>
       <c r="J18">
-        <v>1279.528143300647</v>
+        <v>1255.105250435785</v>
       </c>
       <c r="K18">
-        <v>2971.903690451332</v>
+        <v>3151.907565893968</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>76.41048996281964</v>
+        <v>75.56663549313798</v>
       </c>
       <c r="G19">
-        <v>62.53565576953277</v>
+        <v>65.4855033598419</v>
       </c>
       <c r="H19">
-        <v>1501.748390548736</v>
+        <v>1583.286740682293</v>
       </c>
       <c r="I19">
-        <v>-924.2350214545331</v>
+        <v>-912.1587679661367</v>
       </c>
       <c r="J19">
-        <v>1199.506502440503</v>
+        <v>1130.576758575471</v>
       </c>
       <c r="K19">
-        <v>3249.1502634086</v>
+        <v>3004.418402685151</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.79257025779442</v>
+        <v>75.18576572496335</v>
       </c>
       <c r="G20">
-        <v>80.0110957754957</v>
+        <v>79.72863672264955</v>
       </c>
       <c r="H20">
-        <v>1567.169814143891</v>
+        <v>1556.530862020874</v>
       </c>
       <c r="I20">
-        <v>-835.0386016727351</v>
+        <v>-827.3293007767418</v>
       </c>
       <c r="J20">
-        <v>1085.530166760262</v>
+        <v>1113.999433528148</v>
       </c>
       <c r="K20">
-        <v>3155.038442673408</v>
+        <v>3224.410311876498</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.9035428256643</v>
+        <v>68.75041524392086</v>
       </c>
       <c r="G21">
-        <v>97.17291439199187</v>
+        <v>101.7983265126679</v>
       </c>
       <c r="H21">
-        <v>1570.964045093842</v>
+        <v>1571.075333297465</v>
       </c>
       <c r="I21">
-        <v>-820.4967573109822</v>
+        <v>-783.3995861325601</v>
       </c>
       <c r="J21">
-        <v>1126.79362527947</v>
+        <v>1041.239344752806</v>
       </c>
       <c r="K21">
-        <v>3085.101794795535</v>
+        <v>3209.701652678292</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>66.41259538309033</v>
+        <v>66.90721092059225</v>
       </c>
       <c r="G22">
-        <v>112.1924084760188</v>
+        <v>111.8041800886772</v>
       </c>
       <c r="H22">
-        <v>1547.146174732994</v>
+        <v>1642.5259921843</v>
       </c>
       <c r="I22">
-        <v>-762.7315897021967</v>
+        <v>-768.9648133228872</v>
       </c>
       <c r="J22">
-        <v>1030.962005536535</v>
+        <v>1056.327659168354</v>
       </c>
       <c r="K22">
-        <v>3130.492341089127</v>
+        <v>3286.302361605425</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.7674259702019</v>
+        <v>69.01395643824787</v>
       </c>
       <c r="G23">
-        <v>137.1754447517011</v>
+        <v>124.9062244909229</v>
       </c>
       <c r="H23">
-        <v>1587.790213258603</v>
+        <v>1705.114148015997</v>
       </c>
       <c r="I23">
-        <v>-694.9456232366803</v>
+        <v>-679.8025673014719</v>
       </c>
       <c r="J23">
-        <v>1002.35511805072</v>
+        <v>940.8580486921511</v>
       </c>
       <c r="K23">
-        <v>3319.093499973991</v>
+        <v>3102.40238282052</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.14666880104669</v>
+        <v>60.62385254718274</v>
       </c>
       <c r="G24">
-        <v>144.2953507531843</v>
+        <v>143.9808676245503</v>
       </c>
       <c r="H24">
-        <v>1731.619446323238</v>
+        <v>1731.878310239235</v>
       </c>
       <c r="I24">
-        <v>-662.3428922132448</v>
+        <v>-648.4110409098396</v>
       </c>
       <c r="J24">
-        <v>890.3555416013753</v>
+        <v>885.7115399221382</v>
       </c>
       <c r="K24">
-        <v>3089.773414980279</v>
+        <v>3073.893502576654</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.5124685178379</v>
+        <v>60.17205194990208</v>
       </c>
       <c r="G25">
-        <v>160.6588285649822</v>
+        <v>169.8953090720054</v>
       </c>
       <c r="H25">
-        <v>1740.261510100584</v>
+        <v>1626.158597858592</v>
       </c>
       <c r="I25">
-        <v>-598.0941448701465</v>
+        <v>-585.3708103747093</v>
       </c>
       <c r="J25">
-        <v>900.2773784548842</v>
+        <v>895.7267237090599</v>
       </c>
       <c r="K25">
-        <v>3167.094142359743</v>
+        <v>3295.068956438673</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.01280277286726</v>
+        <v>58.05959361857327</v>
       </c>
       <c r="G26">
-        <v>183.2199229544217</v>
+        <v>173.1441469238334</v>
       </c>
       <c r="H26">
-        <v>1696.7428974989</v>
+        <v>1721.493253283403</v>
       </c>
       <c r="I26">
-        <v>-550.4804127900152</v>
+        <v>-554.7179731362897</v>
       </c>
       <c r="J26">
-        <v>825.8160145318401</v>
+        <v>854.5182723876732</v>
       </c>
       <c r="K26">
-        <v>3164.368646004045</v>
+        <v>2982.097216336976</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.26890065674822</v>
+        <v>56.37058484455624</v>
       </c>
       <c r="G27">
-        <v>189.8696544418314</v>
+        <v>206.8466891700273</v>
       </c>
       <c r="H27">
-        <v>1694.907366429457</v>
+        <v>1738.332669198352</v>
       </c>
       <c r="I27">
-        <v>-499.2867535379572</v>
+        <v>-497.8629061985644</v>
       </c>
       <c r="J27">
-        <v>762.0386059090039</v>
+        <v>818.9002184200267</v>
       </c>
       <c r="K27">
-        <v>3072.370368611504</v>
+        <v>2972.195376726828</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.13112301612899</v>
+        <v>54.26893815539429</v>
       </c>
       <c r="G28">
-        <v>206.8886315179797</v>
+        <v>208.2489641786291</v>
       </c>
       <c r="H28">
-        <v>1716.626899284725</v>
+        <v>1786.519118316051</v>
       </c>
       <c r="I28">
-        <v>-458.1858120443793</v>
+        <v>-425.0324652254134</v>
       </c>
       <c r="J28">
-        <v>767.8292044776404</v>
+        <v>729.157968719017</v>
       </c>
       <c r="K28">
-        <v>2949.790367504747</v>
+        <v>2943.771778938234</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.03722159232509</v>
+        <v>55.79970094946932</v>
       </c>
       <c r="G29">
-        <v>221.4301683652037</v>
+        <v>228.4228032037957</v>
       </c>
       <c r="H29">
-        <v>1689.342800140787</v>
+        <v>1731.023665366731</v>
       </c>
       <c r="I29">
-        <v>-398.8437886363543</v>
+        <v>-365.4539018915773</v>
       </c>
       <c r="J29">
-        <v>706.6615462444918</v>
+        <v>653.3509315718602</v>
       </c>
       <c r="K29">
-        <v>2753.665114571885</v>
+        <v>2860.669789865045</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.91279795184338</v>
+        <v>56.27904581432857</v>
       </c>
       <c r="G30">
-        <v>254.9256311656471</v>
+        <v>257.3097428420445</v>
       </c>
       <c r="H30">
-        <v>1692.419899976002</v>
+        <v>1713.545129265287</v>
       </c>
       <c r="I30">
-        <v>-325.4249758702293</v>
+        <v>-328.32053428683</v>
       </c>
       <c r="J30">
-        <v>618.5645613606428</v>
+        <v>630.5987169061233</v>
       </c>
       <c r="K30">
-        <v>2901.331766640611</v>
+        <v>2708.984592799466</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.74045046583317</v>
+        <v>50.00219647524406</v>
       </c>
       <c r="G31">
-        <v>267.5099364858296</v>
+        <v>254.325149251995</v>
       </c>
       <c r="H31">
-        <v>1764.382253335859</v>
+        <v>1788.047860352565</v>
       </c>
       <c r="I31">
-        <v>-273.0772571335668</v>
+        <v>-275.0292660029714</v>
       </c>
       <c r="J31">
-        <v>563.2845527299926</v>
+        <v>574.2836313884435</v>
       </c>
       <c r="K31">
-        <v>2674.777694801272</v>
+        <v>2580.869756643087</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.98077677556236</v>
+        <v>49.0082661706956</v>
       </c>
       <c r="G32">
-        <v>278.1100163746041</v>
+        <v>272.8835948987798</v>
       </c>
       <c r="H32">
-        <v>1839.454393021008</v>
+        <v>1793.912617753251</v>
       </c>
       <c r="I32">
-        <v>-202.3110849610425</v>
+        <v>-206.0320783201092</v>
       </c>
       <c r="J32">
-        <v>560.3292718999147</v>
+        <v>562.7751453523853</v>
       </c>
       <c r="K32">
-        <v>2439.301065886021</v>
+        <v>2604.230329240781</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.22607909097137</v>
+        <v>51.61080242049744</v>
       </c>
       <c r="G33">
-        <v>287.180167759154</v>
+        <v>282.9185805986776</v>
       </c>
       <c r="H33">
-        <v>1806.141958387203</v>
+        <v>1776.584262323404</v>
       </c>
       <c r="I33">
-        <v>-144.2495936736846</v>
+        <v>-151.6280258296749</v>
       </c>
       <c r="J33">
-        <v>501.667026699706</v>
+        <v>504.6832675416534</v>
       </c>
       <c r="K33">
-        <v>2398.683237539058</v>
+        <v>2375.437531603571</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>51.36586174091997</v>
+        <v>51.24956989964126</v>
       </c>
       <c r="G34">
-        <v>317.9936660990679</v>
+        <v>312.7417865805738</v>
       </c>
       <c r="H34">
-        <v>1856.941672747819</v>
+        <v>1832.199160523605</v>
       </c>
       <c r="I34">
-        <v>-80.76676046265983</v>
+        <v>-85.70156255705113</v>
       </c>
       <c r="J34">
-        <v>444.0695030039415</v>
+        <v>454.013139705102</v>
       </c>
       <c r="K34">
-        <v>2304.693309842301</v>
+        <v>2146.941059142252</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.38716112100894</v>
+        <v>48.60309028338956</v>
       </c>
       <c r="G35">
-        <v>345.210008181262</v>
+        <v>320.1973336010499</v>
       </c>
       <c r="H35">
-        <v>1814.98610241945</v>
+        <v>1850.575575089055</v>
       </c>
       <c r="I35">
-        <v>-18.52748030710828</v>
+        <v>-18.30936067833997</v>
       </c>
       <c r="J35">
-        <v>406.000098265642</v>
+        <v>375.1733821655266</v>
       </c>
       <c r="K35">
-        <v>1934.055759717423</v>
+        <v>2078.598839952404</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.75210502943108</v>
+        <v>49.09552500066396</v>
       </c>
       <c r="G36">
-        <v>362.4574868877394</v>
+        <v>359.8636928603627</v>
       </c>
       <c r="H36">
-        <v>1780.456512406264</v>
+        <v>1786.025360430192</v>
       </c>
       <c r="I36">
-        <v>44.9910063182696</v>
+        <v>48.54374159101269</v>
       </c>
       <c r="J36">
-        <v>356.4217007242223</v>
+        <v>349.6232369424495</v>
       </c>
       <c r="K36">
-        <v>1791.214587560838</v>
+        <v>1822.425034101569</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.62740108464694</v>
+        <v>47.73890418792237</v>
       </c>
       <c r="G37">
-        <v>376.0894801233167</v>
+        <v>351.057489644683</v>
       </c>
       <c r="H37">
-        <v>1915.020391516958</v>
+        <v>1916.845941607337</v>
       </c>
       <c r="I37">
-        <v>119.9590836328907</v>
+        <v>117.1182666162009</v>
       </c>
       <c r="J37">
-        <v>286.2403696625518</v>
+        <v>307.8593469989582</v>
       </c>
       <c r="K37">
-        <v>1550.502599504888</v>
+        <v>1572.508615160315</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.84402405254691</v>
+        <v>46.76046750580912</v>
       </c>
       <c r="G38">
-        <v>384.8415856230434</v>
+        <v>370.2297210255759</v>
       </c>
       <c r="H38">
-        <v>1772.728337174686</v>
+        <v>1845.633204665641</v>
       </c>
       <c r="I38">
-        <v>179.6435794051634</v>
+        <v>190.2397203666762</v>
       </c>
       <c r="J38">
-        <v>245.1058222355259</v>
+        <v>255.6323988831701</v>
       </c>
       <c r="K38">
-        <v>1438.740861173639</v>
+        <v>1439.75272641054</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.8325750922954</v>
+        <v>43.21774848548271</v>
       </c>
       <c r="G39">
-        <v>404.1054306123448</v>
+        <v>378.400948167045</v>
       </c>
       <c r="H39">
-        <v>1844.3472967307</v>
+        <v>1947.56406751277</v>
       </c>
       <c r="I39">
-        <v>253.8602799437281</v>
+        <v>257.7060606767398</v>
       </c>
       <c r="J39">
-        <v>208.4933902311326</v>
+        <v>202.8373164374706</v>
       </c>
       <c r="K39">
-        <v>1109.735698108512</v>
+        <v>1095.570971022641</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.24651567735621</v>
+        <v>43.93187837621606</v>
       </c>
       <c r="G40">
-        <v>407.6408804066334</v>
+        <v>391.6149099795638</v>
       </c>
       <c r="H40">
-        <v>1892.88911681724</v>
+        <v>1806.094615493</v>
       </c>
       <c r="I40">
-        <v>315.7917944063246</v>
+        <v>334.6137521828713</v>
       </c>
       <c r="J40">
-        <v>153.3046044842718</v>
+        <v>149.258394755537</v>
       </c>
       <c r="K40">
-        <v>862.3981502014309</v>
+        <v>915.3275407048621</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>44.47275938900655</v>
+        <v>43.76336192712873</v>
       </c>
       <c r="G41">
-        <v>441.4781753903892</v>
+        <v>409.2976635617408</v>
       </c>
       <c r="H41">
-        <v>1864.248008932987</v>
+        <v>1974.386518113488</v>
       </c>
       <c r="I41">
-        <v>412.1233180760807</v>
+        <v>398.0277865064109</v>
       </c>
       <c r="J41">
-        <v>102.1582938517638</v>
+        <v>106.2205801375743</v>
       </c>
       <c r="K41">
-        <v>610.8246289040433</v>
+        <v>641.3684129931538</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>44.96288994993897</v>
+        <v>44.10877496350799</v>
       </c>
       <c r="G42">
-        <v>444.6621477830544</v>
+        <v>465.7686858222917</v>
       </c>
       <c r="H42">
-        <v>1882.594156399788</v>
+        <v>1960.063709853781</v>
       </c>
       <c r="I42">
-        <v>480.6068632956063</v>
+        <v>477.9262472940655</v>
       </c>
       <c r="J42">
-        <v>52.52708260101471</v>
+        <v>51.3565579288771</v>
       </c>
       <c r="K42">
-        <v>325.896291357338</v>
+        <v>328.637221698652</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.78042959180106</v>
+        <v>41.40937750089223</v>
       </c>
       <c r="G43">
-        <v>441.4293890721688</v>
+        <v>452.7921645856296</v>
       </c>
       <c r="H43">
-        <v>1900.01251644905</v>
+        <v>1858.767171023945</v>
       </c>
       <c r="I43">
-        <v>551.1714325550854</v>
+        <v>563.6555517445057</v>
       </c>
       <c r="J43">
-        <v>5.428423233902446</v>
+        <v>5.207741932302782</v>
       </c>
       <c r="K43">
-        <v>34.75595193363649</v>
+        <v>34.39745858681455</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.08590967851008</v>
+        <v>43.47215177228441</v>
       </c>
       <c r="G44">
-        <v>492.0974845655492</v>
+        <v>477.0859720923072</v>
       </c>
       <c r="H44">
-        <v>1908.412609189002</v>
+        <v>1868.113860148375</v>
       </c>
       <c r="I44">
-        <v>634.2405093151131</v>
+        <v>655.5291354824379</v>
       </c>
       <c r="J44">
-        <v>-43.9775157872513</v>
+        <v>-41.27362995464863</v>
       </c>
       <c r="K44">
-        <v>-274.8612844006798</v>
+        <v>-283.2689825737806</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.4234037116667</v>
+        <v>42.077162917558</v>
       </c>
       <c r="G45">
-        <v>475.740422758625</v>
+        <v>478.2950053924343</v>
       </c>
       <c r="H45">
-        <v>1990.98955729059</v>
+        <v>1994.795143568157</v>
       </c>
       <c r="I45">
-        <v>746.654217265376</v>
+        <v>687.5984616143497</v>
       </c>
       <c r="J45">
-        <v>-94.83251843186525</v>
+        <v>-93.65910018113564</v>
       </c>
       <c r="K45">
-        <v>-586.2869173943003</v>
+        <v>-622.9188728743469</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.56786112872036</v>
+        <v>41.53325561589858</v>
       </c>
       <c r="G46">
-        <v>508.939663972741</v>
+        <v>508.0481976540829</v>
       </c>
       <c r="H46">
-        <v>1969.028905319955</v>
+        <v>1837.156016839274</v>
       </c>
       <c r="I46">
-        <v>840.109869063913</v>
+        <v>798.0564688111513</v>
       </c>
       <c r="J46">
-        <v>-142.0464273338942</v>
+        <v>-136.3185384272578</v>
       </c>
       <c r="K46">
-        <v>-993.0058134148495</v>
+        <v>-920.7180196742401</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.36603920593157</v>
+        <v>40.46943550909261</v>
       </c>
       <c r="G47">
-        <v>517.1603255603686</v>
+        <v>540.004165218687</v>
       </c>
       <c r="H47">
-        <v>2021.633080051151</v>
+        <v>1838.635737301711</v>
       </c>
       <c r="I47">
-        <v>884.5527231273971</v>
+        <v>913.0572395954764</v>
       </c>
       <c r="J47">
-        <v>-179.9137155937987</v>
+        <v>-181.6454476321444</v>
       </c>
       <c r="K47">
-        <v>-1318.570573618243</v>
+        <v>-1376.465559192531</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.50235542497308</v>
+        <v>38.52978968490592</v>
       </c>
       <c r="G48">
-        <v>559.4865157986376</v>
+        <v>551.1797348211113</v>
       </c>
       <c r="H48">
-        <v>1932.733046093791</v>
+        <v>2011.266877071099</v>
       </c>
       <c r="I48">
-        <v>1002.000140623208</v>
+        <v>986.5007063916748</v>
       </c>
       <c r="J48">
-        <v>-246.8084323049028</v>
+        <v>-244.9507984887625</v>
       </c>
       <c r="K48">
-        <v>-1709.734332854098</v>
+        <v>-1751.317527119149</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.79983780290705</v>
+        <v>38.04514009188802</v>
       </c>
       <c r="G49">
-        <v>561.2005831147</v>
+        <v>580.3520902591991</v>
       </c>
       <c r="H49">
-        <v>1966.245505152251</v>
+        <v>1978.749740387166</v>
       </c>
       <c r="I49">
-        <v>1049.748343814573</v>
+        <v>1020.881146704923</v>
       </c>
       <c r="J49">
-        <v>-290.0095617354839</v>
+        <v>-282.9864023915258</v>
       </c>
       <c r="K49">
-        <v>-2162.132857148392</v>
+        <v>-2029.817952568819</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.34525961326194</v>
+        <v>37.11029711566821</v>
       </c>
       <c r="G50">
-        <v>598.2579765722231</v>
+        <v>596.8844493989398</v>
       </c>
       <c r="H50">
-        <v>1929.104502637891</v>
+        <v>2043.729834026957</v>
       </c>
       <c r="I50">
-        <v>1209.333109236049</v>
+        <v>1144.079901712543</v>
       </c>
       <c r="J50">
-        <v>-319.1511197216121</v>
+        <v>-343.0616828057302</v>
       </c>
       <c r="K50">
-        <v>-2482.395779202223</v>
+        <v>-2610.710560267119</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.18929462499811</v>
+        <v>37.10042084057069</v>
       </c>
       <c r="G51">
-        <v>573.7561442212096</v>
+        <v>585.4998457191159</v>
       </c>
       <c r="H51">
-        <v>1877.863806576086</v>
+        <v>2000.316069613285</v>
       </c>
       <c r="I51">
-        <v>1221.383010114958</v>
+        <v>1201.073274138656</v>
       </c>
       <c r="J51">
-        <v>-383.9240644750321</v>
+        <v>-389.3713948737243</v>
       </c>
       <c r="K51">
-        <v>-2928.616753295596</v>
+        <v>-2829.027948908634</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.699423835095</v>
+        <v>39.11998680716022</v>
       </c>
       <c r="G52">
-        <v>596.7630325335111</v>
+        <v>623.4681196405056</v>
       </c>
       <c r="H52">
-        <v>1990.681327364043</v>
+        <v>1899.49243583725</v>
       </c>
       <c r="I52">
-        <v>1367.5190977291</v>
+        <v>1310.612145166475</v>
       </c>
       <c r="J52">
-        <v>-424.3586668394869</v>
+        <v>-443.733900532873</v>
       </c>
       <c r="K52">
-        <v>-3449.021988156678</v>
+        <v>-3448.464389713417</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.443879971686</v>
+        <v>36.14466357947466</v>
       </c>
       <c r="G53">
-        <v>620.052154320902</v>
+        <v>600.6143679795177</v>
       </c>
       <c r="H53">
-        <v>1904.500130025607</v>
+        <v>1946.051089811062</v>
       </c>
       <c r="I53">
-        <v>1447.750096276199</v>
+        <v>1424.92129378177</v>
       </c>
       <c r="J53">
-        <v>-500.6935399077319</v>
+        <v>-474.3566405893358</v>
       </c>
       <c r="K53">
-        <v>-3746.204393696421</v>
+        <v>-3857.004627172351</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.85934504432804</v>
+        <v>35.46557478734884</v>
       </c>
       <c r="G54">
-        <v>626.9067351913195</v>
+        <v>630.5975855866097</v>
       </c>
       <c r="H54">
-        <v>1931.647967175101</v>
+        <v>1904.727181859663</v>
       </c>
       <c r="I54">
-        <v>1534.528681321191</v>
+        <v>1563.280422464648</v>
       </c>
       <c r="J54">
-        <v>-550.640049101921</v>
+        <v>-553.5542762806979</v>
       </c>
       <c r="K54">
-        <v>-4486.830096263137</v>
+        <v>-4128.672622199594</v>
       </c>
     </row>
   </sheetData>
